--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 22.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{ACFB3605-0592-426C-AE9D-8DABFAB95ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C307A2F3-FB87-4742-AB60-A096E91A40BC}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{ACFB3605-0592-426C-AE9D-8DABFAB95ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{31526B2E-6B36-49DA-8EBE-0DDEB95415DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" activeTab="4" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="6" activeTab="6" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="1619">
   <si>
     <t>Questions</t>
   </si>
@@ -3859,9 +3859,6 @@
   </si>
   <si>
     <t>ID variable moneda</t>
-  </si>
-  <si>
-    <t>s9q19b__*</t>
   </si>
   <si>
     <r>
@@ -4562,9 +4559,6 @@
     <t>s9q28__11</t>
   </si>
   <si>
-    <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Pensión de sobreviviente, organdad, incapacidad</t>
-  </si>
-  <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Pensión de vejez por el seguro social</t>
   </si>
   <si>
@@ -4584,9 +4578,6 @@
   </si>
   <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Ayuda de instituciones privadas</t>
-  </si>
-  <si>
-    <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Ayudas familiares o contribuiones de otros hogares</t>
   </si>
   <si>
     <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Asignación familiar por menores a su cargo</t>
@@ -4820,9 +4811,6 @@
     <t>region_est1</t>
   </si>
   <si>
-    <t>s9q19a__*_bolfeb</t>
-  </si>
-  <si>
     <t>s9q23a_bolfeb</t>
   </si>
   <si>
@@ -4833,9 +4821,6 @@
   </si>
   <si>
     <t>s9q29b_2_bolfeb</t>
-  </si>
-  <si>
-    <t>s9q21a_*_bolfeb</t>
   </si>
   <si>
     <t>s9q24a_bolfeb</t>
@@ -5026,9 +5011,6 @@
   </si>
   <si>
     <t>2b. En qué año ocurrió ?</t>
-  </si>
-  <si>
-    <t>Variables "tipo" CEDLAS:</t>
   </si>
   <si>
     <t>iasalp_m</t>
@@ -6338,6 +6320,48 @@
   </si>
   <si>
     <t>hnoedadfallecio*  (1 a 20)</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Pensión de sobreviviente, orfandad, incapacidad</t>
+  </si>
+  <si>
+    <t>inla_ayuda_pu</t>
+  </si>
+  <si>
+    <t>Recibió el mes pasado ingresos por alguno de los siguientes conceptos y cuánto? Ayudas familiares o contribuciones de otros hogares</t>
+  </si>
+  <si>
+    <t>s9q19a_* (1 al 12)</t>
+  </si>
+  <si>
+    <t>s9q19b__* (1 al 12)</t>
+  </si>
+  <si>
+    <t>s9q19a__*_bolfeb (1 al 12)</t>
+  </si>
+  <si>
+    <t>s9q21a_* (1 al 9)</t>
+  </si>
+  <si>
+    <t>s9q21b_* (1 al 9)</t>
+  </si>
+  <si>
+    <t>s9q21a_*_bolfeb (1 al 9)</t>
+  </si>
+  <si>
+    <t>ila_m_local</t>
+  </si>
+  <si>
+    <t>ila_m_ext</t>
+  </si>
+  <si>
+    <t>Ingreso laboral monetario local</t>
+  </si>
+  <si>
+    <t>Ingreso laboral monetario del extranjero</t>
+  </si>
+  <si>
+    <t>Variables "tipo" SEDLAC:</t>
   </si>
 </sst>
 </file>
@@ -7246,6 +7270,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7354,6 +7384,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7365,15 +7398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7700,10 +7724,10 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7712,12 +7736,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7764,7 +7788,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="70" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -7963,10 +7987,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>159</v>
@@ -8188,10 +8212,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -8286,10 +8310,10 @@
         <v>401</v>
       </c>
       <c r="B37" s="152" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -8320,12 +8344,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8402,7 +8426,7 @@
         <v>366</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>371</v>
@@ -8570,12 +8594,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8605,13 +8629,13 @@
       <c r="D2" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="218" t="s">
+      <c r="E2" s="220" t="s">
         <v>798</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
@@ -8672,10 +8696,10 @@
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>805</v>
@@ -8702,10 +8726,10 @@
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
       <c r="A6" s="62" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>809</v>
@@ -8732,10 +8756,10 @@
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>813</v>
@@ -8760,10 +8784,10 @@
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>814</v>
@@ -8786,12 +8810,12 @@
       </c>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
+    <row r="9" spans="1:10" s="52" customFormat="1" ht="57.6">
       <c r="A9" s="62" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>815</v>
@@ -8818,10 +8842,10 @@
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
       <c r="A10" s="62" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>816</v>
@@ -8844,12 +8868,12 @@
       </c>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="57.6">
       <c r="A11" s="62" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>819</v>
@@ -8875,10 +8899,10 @@
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A12" s="62" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>820</v>
@@ -9352,12 +9376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="219">
+      <c r="A1" s="221">
         <v>2019</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9398,14 +9422,14 @@
         <v>682</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C3" s="69" t="s">
         <v>683</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="123"/>
@@ -9417,7 +9441,7 @@
         <v>684</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>685</v>
@@ -9440,7 +9464,7 @@
         <v>688</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>689</v>
@@ -9461,7 +9485,7 @@
         <v>690</v>
       </c>
       <c r="B6" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>691</v>
@@ -9471,7 +9495,7 @@
         <v>687</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G6" s="123"/>
       <c r="H6" s="123"/>
@@ -9482,7 +9506,7 @@
         <v>692</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>693</v>
@@ -9501,7 +9525,7 @@
         <v>694</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="C8" s="69" t="s">
         <v>695</v>
@@ -9522,7 +9546,7 @@
         <v>697</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>698</v>
@@ -9541,7 +9565,7 @@
         <v>700</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C10" s="71" t="s">
         <v>701</v>
@@ -9558,7 +9582,7 @@
         <v>702</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>703</v>
@@ -9577,7 +9601,7 @@
         <v>705</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>706</v>
@@ -9596,7 +9620,7 @@
         <v>708</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>709</v>
@@ -9613,7 +9637,7 @@
         <v>710</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>711</v>
@@ -9632,7 +9656,7 @@
         <v>713</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>714</v>
@@ -9649,7 +9673,7 @@
         <v>715</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>716</v>
@@ -9680,7 +9704,7 @@
         <v>719</v>
       </c>
       <c r="B18" s="72" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>720</v>
@@ -9699,7 +9723,7 @@
         <v>722</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C19" s="71" t="s">
         <v>723</v>
@@ -9716,7 +9740,7 @@
         <v>724</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>725</v>
@@ -9733,7 +9757,7 @@
         <v>726</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>727</v>
@@ -9752,7 +9776,7 @@
         <v>728</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>729</v>
@@ -9771,7 +9795,7 @@
         <v>731</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C23" s="64" t="s">
         <v>732</v>
@@ -9792,7 +9816,7 @@
         <v>734</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>735</v>
@@ -9809,7 +9833,7 @@
         <v>736</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C25" s="64" t="s">
         <v>737</v>
@@ -9828,7 +9852,7 @@
         <v>739</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C26" s="64" t="s">
         <v>740</v>
@@ -9847,7 +9871,7 @@
         <v>741</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>742</v>
@@ -9866,7 +9890,7 @@
         <v>743</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>744</v>
@@ -9883,7 +9907,7 @@
         <v>745</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C29" s="64" t="s">
         <v>746</v>
@@ -9902,7 +9926,7 @@
         <v>747</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C30" s="72" t="s">
         <v>748</v>
@@ -9943,12 +9967,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="219">
+      <c r="A1" s="221">
         <v>2019</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9989,13 +10013,13 @@
         <v>393</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="C3" s="69" t="s">
         <v>394</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
@@ -10005,16 +10029,16 @@
     </row>
     <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="69" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -10024,13 +10048,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="71"/>
@@ -10041,16 +10065,16 @@
     </row>
     <row r="6" spans="1:9" ht="409.6">
       <c r="A6" s="69" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="E6" s="71"/>
       <c r="F6" s="71"/>
@@ -10060,13 +10084,13 @@
     </row>
     <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71"/>
@@ -10077,16 +10101,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="69" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="E8" s="71"/>
       <c r="F8" s="71"/>
@@ -10096,16 +10120,16 @@
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" ht="70.2" customHeight="1">
       <c r="A9" s="70" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C9" s="227" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D9" s="226" t="s">
-        <v>1560</v>
+        <v>1533</v>
+      </c>
+      <c r="C9" s="186" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D9" s="224" t="s">
+        <v>1554</v>
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="72"/>
@@ -10115,15 +10139,15 @@
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A10" s="70" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1564</v>
-      </c>
-      <c r="C10" s="228" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D10" s="226"/>
+        <v>1558</v>
+      </c>
+      <c r="C10" s="187" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D10" s="224"/>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
       <c r="G10" s="72"/>
@@ -10132,15 +10156,15 @@
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="57.6">
       <c r="A11" s="70" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C11" s="228" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D11" s="226"/>
+        <v>1559</v>
+      </c>
+      <c r="C11" s="187" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D11" s="224"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72"/>
       <c r="G11" s="72"/>
@@ -10149,15 +10173,15 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A12" s="70" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C12" s="228" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D12" s="226"/>
+        <v>1560</v>
+      </c>
+      <c r="C12" s="187" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D12" s="224"/>
       <c r="E12" s="72"/>
       <c r="F12" s="72"/>
       <c r="G12" s="72"/>
@@ -10166,15 +10190,15 @@
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A13" s="70" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C13" s="228" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D13" s="226"/>
+        <v>1561</v>
+      </c>
+      <c r="C13" s="187" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D13" s="224"/>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
       <c r="G13" s="72"/>
@@ -10183,15 +10207,15 @@
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="72">
       <c r="A14" s="70" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C14" s="228" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D14" s="226"/>
+        <v>1562</v>
+      </c>
+      <c r="C14" s="187" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D14" s="224"/>
       <c r="E14" s="72"/>
       <c r="F14" s="72"/>
       <c r="G14" s="72"/>
@@ -10200,15 +10224,15 @@
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="57.6">
       <c r="A15" s="70" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C15" s="228" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D15" s="226"/>
+        <v>1563</v>
+      </c>
+      <c r="C15" s="187" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D15" s="224"/>
       <c r="E15" s="72"/>
       <c r="F15" s="72"/>
       <c r="G15" s="72"/>
@@ -10217,15 +10241,15 @@
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A16" s="70" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C16" s="228" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D16" s="226"/>
+        <v>1564</v>
+      </c>
+      <c r="C16" s="187" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D16" s="224"/>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
       <c r="G16" s="72"/>
@@ -10234,15 +10258,15 @@
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="57.6">
       <c r="A17" s="70" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C17" s="228" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D17" s="226"/>
+        <v>1565</v>
+      </c>
+      <c r="C17" s="187" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D17" s="224"/>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
       <c r="G17" s="72"/>
@@ -10251,15 +10275,15 @@
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A18" s="70" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C18" s="228" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D18" s="226"/>
+        <v>1566</v>
+      </c>
+      <c r="C18" s="187" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D18" s="224"/>
       <c r="E18" s="72"/>
       <c r="F18" s="72"/>
       <c r="G18" s="72"/>
@@ -10268,15 +10292,15 @@
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A19" s="70" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C19" s="228" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D19" s="226"/>
+        <v>1567</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D19" s="224"/>
       <c r="E19" s="72"/>
       <c r="F19" s="72"/>
       <c r="G19" s="72"/>
@@ -10285,15 +10309,15 @@
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A20" s="70" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C20" s="228" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D20" s="226"/>
+        <v>1568</v>
+      </c>
+      <c r="C20" s="187" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D20" s="224"/>
       <c r="E20" s="72"/>
       <c r="F20" s="72"/>
       <c r="G20" s="72"/>
@@ -10302,15 +10326,15 @@
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A21" s="70" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C21" s="228" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D21" s="226"/>
+        <v>1569</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D21" s="224"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -10319,15 +10343,15 @@
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="57.6">
       <c r="A22" s="70" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C22" s="228" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D22" s="226"/>
+        <v>1570</v>
+      </c>
+      <c r="C22" s="187" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D22" s="224"/>
       <c r="E22" s="72"/>
       <c r="F22" s="72"/>
       <c r="G22" s="72"/>
@@ -10336,15 +10360,15 @@
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A23" s="70" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C23" s="228" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D23" s="226"/>
+        <v>1571</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D23" s="224"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -10353,15 +10377,15 @@
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A24" s="70" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C24" s="228" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D24" s="226"/>
+        <v>1572</v>
+      </c>
+      <c r="C24" s="187" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D24" s="224"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -10370,15 +10394,15 @@
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A25" s="70" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C25" s="228" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D25" s="226"/>
+        <v>1573</v>
+      </c>
+      <c r="C25" s="187" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D25" s="224"/>
       <c r="E25" s="72"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
@@ -10387,15 +10411,15 @@
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A26" s="70" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>1580</v>
-      </c>
-      <c r="C26" s="228" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D26" s="226"/>
+        <v>1574</v>
+      </c>
+      <c r="C26" s="187" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D26" s="224"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
@@ -10404,15 +10428,15 @@
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A27" s="70" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="B27" s="69" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C27" s="228" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D27" s="226"/>
+        <v>1575</v>
+      </c>
+      <c r="C27" s="187" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D27" s="224"/>
       <c r="E27" s="72"/>
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
@@ -10421,15 +10445,15 @@
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1" ht="57.6">
       <c r="A28" s="70" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C28" s="228" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D28" s="226"/>
+        <v>1576</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D28" s="224"/>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
       <c r="G28" s="72"/>
@@ -10438,15 +10462,15 @@
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A29" s="70" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C29" s="228" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D29" s="226"/>
+        <v>1577</v>
+      </c>
+      <c r="C29" s="187" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D29" s="224"/>
       <c r="E29" s="72"/>
       <c r="F29" s="72"/>
       <c r="G29" s="72"/>
@@ -10455,13 +10479,13 @@
     </row>
     <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="69" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
@@ -10496,12 +10520,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="222">
+      <c r="A1" s="225">
         <v>2019</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="226"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -10520,30 +10544,30 @@
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -10577,13 +10601,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="222">
+      <c r="A1" s="225">
         <v>2019</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="223"/>
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="226"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -10601,10 +10625,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="225"/>
+      <c r="B2" s="228"/>
       <c r="C2" s="61" t="s">
         <v>121</v>
       </c>
@@ -10622,10 +10646,10 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="227" t="s">
         <v>828</v>
       </c>
-      <c r="B3" s="224"/>
+      <c r="B3" s="227"/>
       <c r="C3" s="71" t="s">
         <v>842</v>
       </c>
@@ -10652,7 +10676,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="224" t="s">
+      <c r="A4" s="227" t="s">
         <v>858</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -10684,7 +10708,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="224"/>
+      <c r="A5" s="227"/>
       <c r="B5" s="70" t="s">
         <v>830</v>
       </c>
@@ -10714,7 +10738,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="224"/>
+      <c r="A6" s="227"/>
       <c r="B6" s="70" t="s">
         <v>831</v>
       </c>
@@ -10744,7 +10768,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="224"/>
+      <c r="A7" s="227"/>
       <c r="B7" s="70" t="s">
         <v>832</v>
       </c>
@@ -10774,7 +10798,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="224"/>
+      <c r="A8" s="227"/>
       <c r="B8" s="70" t="s">
         <v>833</v>
       </c>
@@ -10804,7 +10828,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="224"/>
+      <c r="A9" s="227"/>
       <c r="B9" s="70" t="s">
         <v>834</v>
       </c>
@@ -10834,7 +10858,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="224"/>
+      <c r="A10" s="227"/>
       <c r="B10" s="86" t="s">
         <v>835</v>
       </c>
@@ -10864,7 +10888,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="224"/>
+      <c r="A11" s="227"/>
       <c r="B11" s="70" t="s">
         <v>836</v>
       </c>
@@ -10894,7 +10918,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="224"/>
+      <c r="A12" s="227"/>
       <c r="B12" s="70" t="s">
         <v>837</v>
       </c>
@@ -10924,7 +10948,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="224"/>
+      <c r="A13" s="227"/>
       <c r="B13" s="70" t="s">
         <v>838</v>
       </c>
@@ -10954,7 +10978,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="224"/>
+      <c r="A14" s="227"/>
       <c r="B14" s="70" t="s">
         <v>839</v>
       </c>
@@ -10982,7 +11006,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="224"/>
+      <c r="A15" s="227"/>
       <c r="B15" s="70" t="s">
         <v>840</v>
       </c>
@@ -11010,10 +11034,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="224" t="s">
+      <c r="A16" s="227" t="s">
         <v>841</v>
       </c>
-      <c r="B16" s="224"/>
+      <c r="B16" s="227"/>
       <c r="C16" s="70" t="s">
         <v>873</v>
       </c>
@@ -11071,12 +11095,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="209">
+      <c r="A1" s="211">
         <v>2019</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -11373,37 +11397,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
   </sheetData>
@@ -11428,12 +11452,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11477,7 +11501,7 @@
         <v>203</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -11494,10 +11518,10 @@
         <v>204</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -11513,7 +11537,7 @@
         <v>205</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -11530,7 +11554,7 @@
         <v>206</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -11568,12 +11592,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11601,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -11656,13 +11680,13 @@
         <v>260</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>261</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>256</v>
@@ -11792,7 +11816,7 @@
         <v>281</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -11811,7 +11835,7 @@
         <v>283</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -11843,13 +11867,13 @@
         <v>288</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>289</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -11887,7 +11911,7 @@
         <v>294</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -11906,7 +11930,7 @@
         <v>297</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12181,7 +12205,7 @@
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12193,12 +12217,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12239,7 +12263,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>89</v>
@@ -12352,16 +12376,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="69" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C7" s="193" t="s">
         <v>1452</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="D7" s="193" t="s">
         <v>1444</v>
-      </c>
-      <c r="C7" s="191" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D7" s="191" t="s">
-        <v>1450</v>
       </c>
       <c r="E7" s="69" t="s">
         <v>401</v>
@@ -12381,13 +12405,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="69" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
+        <v>1439</v>
+      </c>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="69" t="s">
         <v>401</v>
       </c>
@@ -12406,13 +12430,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1446</v>
-      </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
+        <v>1440</v>
+      </c>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
       <c r="E9" s="69" t="s">
         <v>401</v>
       </c>
@@ -12431,13 +12455,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="69" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
+        <v>1441</v>
+      </c>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
       <c r="E10" s="69" t="s">
         <v>401</v>
       </c>
@@ -12456,13 +12480,13 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="69" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>1448</v>
-      </c>
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
+        <v>1442</v>
+      </c>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
       <c r="E11" s="69" t="s">
         <v>401</v>
       </c>
@@ -12481,13 +12505,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="69" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>1449</v>
-      </c>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
+        <v>1443</v>
+      </c>
+      <c r="C12" s="194"/>
+      <c r="D12" s="195"/>
       <c r="E12" s="69" t="s">
         <v>401</v>
       </c>
@@ -12506,14 +12530,14 @@
     </row>
     <row r="13" spans="1:9" ht="129.6">
       <c r="A13" s="183" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="B13" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="193"/>
+      <c r="C13" s="195"/>
       <c r="D13" s="184" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>112</v>
@@ -12542,7 +12566,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E14" s="64" t="s">
         <v>111</v>
@@ -12562,16 +12586,16 @@
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A15" s="64" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="B15" s="64" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C15" s="196" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D15" s="64" t="s">
         <v>1464</v>
-      </c>
-      <c r="C15" s="194" t="s">
-        <v>1469</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>1470</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64"/>
@@ -12580,14 +12604,14 @@
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="A16" s="64" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C16" s="195"/>
+        <v>1459</v>
+      </c>
+      <c r="C16" s="197"/>
       <c r="D16" s="64" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="E16" s="185"/>
       <c r="F16" s="64"/>
@@ -12597,14 +12621,14 @@
     </row>
     <row r="17" spans="1:9" s="1" customFormat="1">
       <c r="A17" s="64" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>1466</v>
-      </c>
-      <c r="C17" s="195"/>
+        <v>1460</v>
+      </c>
+      <c r="C17" s="197"/>
       <c r="D17" s="64" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="E17" s="185"/>
       <c r="F17" s="64"/>
@@ -12614,12 +12638,12 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="69" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C18" s="195"/>
+        <v>1462</v>
+      </c>
+      <c r="C18" s="197"/>
       <c r="D18" s="64"/>
       <c r="E18" s="73"/>
       <c r="F18" s="69"/>
@@ -12629,14 +12653,14 @@
     </row>
     <row r="19" spans="1:9" ht="86.4">
       <c r="A19" s="64" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C19" s="196"/>
+        <v>1466</v>
+      </c>
+      <c r="C19" s="198"/>
       <c r="D19" s="64" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="E19" s="185" t="s">
         <v>195</v>
@@ -12657,7 +12681,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>130</v>
@@ -12676,13 +12700,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="72">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="189" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C21" s="189" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C21" s="191" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="64" t="s">
@@ -12698,20 +12722,20 @@
         <v>108</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="57.6">
-      <c r="A22" s="188"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="64" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C22" s="190"/>
+        <v>1470</v>
+      </c>
+      <c r="C22" s="192"/>
       <c r="D22" s="64" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="E22" s="69"/>
       <c r="F22" s="69"/>
@@ -12761,7 +12785,7 @@
         <v>114</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="E24" s="69" t="s">
         <v>108</v>
@@ -12907,30 +12931,30 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="158.4">
-      <c r="A30" s="187" t="s">
+      <c r="A30" s="189" t="s">
         <v>216</v>
       </c>
       <c r="B30" s="64" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C30" s="189" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D30" s="64" t="s">
         <v>1479</v>
       </c>
-      <c r="C30" s="187" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>1485</v>
-      </c>
     </row>
     <row r="31" spans="1:9" ht="187.2">
-      <c r="A31" s="188"/>
+      <c r="A31" s="190"/>
       <c r="B31" s="64" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C31" s="188"/>
+        <v>1474</v>
+      </c>
+      <c r="C31" s="190"/>
       <c r="D31" s="64" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="F31" s="64" t="s">
         <v>109</v>
@@ -12939,7 +12963,7 @@
         <v>109</v>
       </c>
       <c r="H31" s="64" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="I31" s="64" t="s">
         <v>217</v>
@@ -12953,7 +12977,7 @@
         <v>218</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="69"/>
@@ -12970,7 +12994,7 @@
         <v>246</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D33" s="64" t="s">
         <v>41</v>
@@ -12989,7 +13013,7 @@
         <v>247</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>31</v>
@@ -13008,7 +13032,7 @@
         <v>223</v>
       </c>
       <c r="C35" s="64" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>33</v>
@@ -13027,7 +13051,7 @@
         <v>225</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="D36" s="64" t="s">
         <v>226</v>
@@ -13082,7 +13106,7 @@
         <v>232</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>233</v>
@@ -13095,13 +13119,13 @@
     </row>
     <row r="40" spans="1:9" ht="172.8">
       <c r="A40" s="64" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B40" s="64" t="s">
         <v>326</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="D40" s="64" t="s">
         <v>33</v>
@@ -13139,7 +13163,7 @@
         <v>239</v>
       </c>
       <c r="C42" s="64" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="D42" s="64" t="s">
         <v>240</v>
@@ -13171,16 +13195,16 @@
     </row>
     <row r="44" spans="1:9" ht="144">
       <c r="A44" s="64" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>249</v>
       </c>
       <c r="C44" s="64" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="D44" s="64" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E44" s="69"/>
       <c r="F44" s="69"/>
@@ -13190,13 +13214,13 @@
     </row>
     <row r="45" spans="1:9" ht="86.4">
       <c r="A45" s="64" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>250</v>
       </c>
       <c r="C45" s="64" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D45" s="69"/>
       <c r="E45" s="69"/>
@@ -13207,13 +13231,13 @@
     </row>
     <row r="46" spans="1:9" ht="86.4">
       <c r="A46" s="64" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>327</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="D46" s="64" t="s">
         <v>41</v>
@@ -13226,13 +13250,13 @@
     </row>
     <row r="47" spans="1:9" ht="172.8">
       <c r="A47" s="64" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>328</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D47" s="64" t="s">
         <v>31</v>
@@ -13251,10 +13275,10 @@
         <v>245</v>
       </c>
       <c r="C48" s="64" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="E48" s="69"/>
       <c r="F48" s="69"/>
@@ -13283,7 +13307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670A89C-321F-4AAA-826E-C9FC4E9C351A}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
@@ -13300,12 +13324,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="197">
+      <c r="A1" s="199">
         <v>2019</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -13902,7 +13926,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>29</v>
@@ -13955,12 +13979,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="186">
+      <c r="A1" s="188">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -14007,7 +14031,7 @@
         <v>399</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E3" s="69" t="s">
         <v>401</v>
@@ -14056,13 +14080,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>1048</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>1049</v>
-      </c>
       <c r="C5" s="64" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
@@ -14092,7 +14116,7 @@
         <v>408</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>401</v>
@@ -14170,13 +14194,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
@@ -14200,7 +14224,7 @@
         <v>417</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>418</v>
@@ -14226,13 +14250,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>1054</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>1055</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -14252,7 +14276,7 @@
         <v>422</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>401</v>
@@ -14366,7 +14390,7 @@
         <v>436</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>401</v>
@@ -14444,13 +14468,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>1056</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>1057</v>
-      </c>
       <c r="C19" s="64" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -14555,7 +14579,7 @@
         <v>452</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>401</v>
@@ -14578,7 +14602,7 @@
         <v>453</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>455</v>
@@ -14669,7 +14693,7 @@
         <v>462</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>401</v>
@@ -14783,7 +14807,7 @@
         <v>471</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>472</v>
@@ -14841,7 +14865,7 @@
         <v>486</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E33" s="64" t="s">
         <v>401</v>
@@ -14864,10 +14888,10 @@
         <v>487</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>488</v>
@@ -14891,7 +14915,7 @@
     <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="69"/>
       <c r="B35" s="64" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -15014,11 +15038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -15037,12 +15061,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="198">
+      <c r="A1" s="200">
         <v>2019</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -15072,13 +15096,13 @@
       <c r="D2" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="199" t="s">
+      <c r="E2" s="201" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
@@ -15179,7 +15203,7 @@
         <v>511</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>512</v>
@@ -15209,7 +15233,7 @@
         <v>515</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>400</v>
@@ -15321,13 +15345,13 @@
     </row>
     <row r="11" spans="1:10" ht="41.4">
       <c r="A11" s="125" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B11" s="125" t="s">
         <v>1065</v>
       </c>
-      <c r="B11" s="125" t="s">
-        <v>1066</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>400</v>
@@ -15350,13 +15374,13 @@
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="125" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>400</v>
@@ -15369,13 +15393,13 @@
     </row>
     <row r="13" spans="1:10" ht="27.6">
       <c r="A13" s="125" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>400</v>
@@ -15388,13 +15412,13 @@
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="125" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>400</v>
@@ -15407,13 +15431,13 @@
     </row>
     <row r="15" spans="1:10" ht="41.4">
       <c r="A15" s="125" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>400</v>
@@ -15426,13 +15450,13 @@
     </row>
     <row r="16" spans="1:10" ht="41.4">
       <c r="A16" s="125" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>400</v>
@@ -15445,13 +15469,13 @@
     </row>
     <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="125" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>400</v>
@@ -15464,13 +15488,13 @@
     </row>
     <row r="18" spans="1:9" ht="27.6">
       <c r="A18" s="125" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>400</v>
@@ -15541,13 +15565,13 @@
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>1082</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>1083</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1084</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
@@ -15767,16 +15791,16 @@
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="121" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B29" s="121" t="s">
         <v>572</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>573</v>
@@ -15852,13 +15876,13 @@
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>870</v>
@@ -15874,7 +15898,7 @@
         <v>940</v>
       </c>
       <c r="B33" s="151" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>576</v>
@@ -15886,7 +15910,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:10" ht="244.8">
+    <row r="34" spans="1:10" ht="234.6">
       <c r="A34" s="22" t="s">
         <v>582</v>
       </c>
@@ -15894,10 +15918,10 @@
         <v>583</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>584</v>
@@ -15972,9 +15996,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="244.8">
+    <row r="37" spans="1:10" ht="234.6">
       <c r="A37" s="121" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>589</v>
@@ -16061,7 +16085,7 @@
         <v>598</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>870</v>
@@ -16150,7 +16174,7 @@
         <v>606</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>401</v>
@@ -16235,7 +16259,7 @@
         <v>613</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>401</v>
@@ -16320,7 +16344,7 @@
         <v>622</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>401</v>
@@ -16399,13 +16423,13 @@
         <v>627</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>628</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>401</v>
@@ -16428,7 +16452,7 @@
         <v>629</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>576</v>
@@ -16456,7 +16480,7 @@
         <v>630</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>580</v>
@@ -16485,7 +16509,7 @@
         <v>631</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>632</v>
@@ -16513,7 +16537,7 @@
         <v>633</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>580</v>
@@ -16568,13 +16592,13 @@
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>1085</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>1086</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
@@ -16682,13 +16706,13 @@
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>1088</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="C62" s="29" t="s">
         <v>1089</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1090</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>401</v>
@@ -16769,13 +16793,13 @@
     </row>
     <row r="65" spans="1:13" ht="27.6">
       <c r="A65" s="28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>1091</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>1092</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1093</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
@@ -16810,7 +16834,7 @@
       <c r="E66" s="33" t="s">
         <v>669</v>
       </c>
-      <c r="F66" s="48" t="s">
+      <c r="F66" s="33" t="s">
         <v>670</v>
       </c>
       <c r="G66" s="33" t="s">
@@ -16828,10 +16852,10 @@
         <v>671</v>
       </c>
       <c r="B67" s="126" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D67" s="47" t="s">
         <v>673</v>
@@ -16839,7 +16863,7 @@
       <c r="E67" s="33" t="s">
         <v>674</v>
       </c>
-      <c r="F67" s="48" t="s">
+      <c r="F67" s="33" t="s">
         <v>670</v>
       </c>
       <c r="G67" s="48" t="s">
@@ -16855,10 +16879,10 @@
     <row r="68" spans="1:13" s="159" customFormat="1">
       <c r="A68" s="153"/>
       <c r="B68" s="154" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C68" s="155" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="D68" s="156"/>
       <c r="E68" s="157"/>
@@ -16872,10 +16896,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B69" s="126" t="s">
         <v>1095</v>
-      </c>
-      <c r="B69" s="126" t="s">
-        <v>1096</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>672</v>
@@ -16971,11 +16995,11 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16989,12 +17013,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="202">
+      <c r="A1" s="204">
         <v>2019</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
       <c r="E1" s="135">
         <v>2018</v>
       </c>
@@ -17027,19 +17051,19 @@
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="139" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B3" s="139" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C3" s="139" t="s">
-        <v>1112</v>
+        <v>1605</v>
       </c>
       <c r="D3" s="140" t="s">
         <v>400</v>
       </c>
       <c r="E3" s="137" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H3" s="131"/>
       <c r="I3" s="131"/>
@@ -17047,13 +17071,13 @@
     </row>
     <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="139" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B4" s="139" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C4" s="139" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>400</v>
@@ -17073,13 +17097,13 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="139" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C5" s="139" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>400</v>
@@ -17095,13 +17119,13 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
       <c r="A6" s="139" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B6" s="139" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C6" s="139" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>400</v>
@@ -17116,13 +17140,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="139" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B7" s="139" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D7" s="140" t="s">
         <v>400</v>
@@ -17136,13 +17160,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="139" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B8" s="139" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C8" s="139" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D8" s="140" t="s">
         <v>400</v>
@@ -17155,11 +17179,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="139" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B9" s="139"/>
+        <v>1106</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>1606</v>
+      </c>
       <c r="C9" s="139" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D9" s="140" t="s">
         <v>400</v>
@@ -17172,13 +17198,13 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="139" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B10" s="139" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="C10" s="139" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D10" s="140" t="s">
         <v>400</v>
@@ -17191,13 +17217,13 @@
     </row>
     <row r="11" spans="1:10" ht="43.2">
       <c r="A11" s="139" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B11" s="139" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C11" s="139" t="s">
-        <v>1120</v>
+        <v>1607</v>
       </c>
       <c r="D11" s="140" t="s">
         <v>400</v>
@@ -17210,13 +17236,13 @@
     </row>
     <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="139" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B12" s="139" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C12" s="139" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D12" s="140" t="s">
         <v>400</v>
@@ -17229,13 +17255,13 @@
     </row>
     <row r="13" spans="1:10" ht="28.8">
       <c r="A13" s="139" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B13" s="139" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C13" s="139" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D13" s="140" t="s">
         <v>400</v>
@@ -17248,10 +17274,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="141" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B14" s="141" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="C14" s="142" t="s">
         <v>601</v>
@@ -17265,13 +17291,13 @@
     </row>
     <row r="15" spans="1:10" ht="40.799999999999997">
       <c r="A15" s="141" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B15" s="141" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D15" s="143" t="s">
         <v>581</v>
@@ -17284,13 +17310,13 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="150" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C16" s="139" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>400</v>
@@ -17306,7 +17332,7 @@
         <v>939</v>
       </c>
       <c r="B17" s="142" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C17" s="142"/>
       <c r="D17" s="143"/>
@@ -17318,13 +17344,13 @@
     </row>
     <row r="18" spans="1:9" ht="43.2">
       <c r="A18" s="144" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B18" s="145" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C18" s="145" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D18" s="146" t="s">
         <v>400</v>
@@ -17337,13 +17363,13 @@
     </row>
     <row r="19" spans="1:9" ht="43.2">
       <c r="A19" s="144" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B19" s="145" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C19" s="145" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D19" s="146" t="s">
         <v>400</v>
@@ -17356,13 +17382,13 @@
     </row>
     <row r="20" spans="1:9" ht="43.2">
       <c r="A20" s="144" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B20" s="145" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C20" s="145" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D20" s="146" t="s">
         <v>400</v>
@@ -17375,13 +17401,13 @@
     </row>
     <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="144" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B21" s="145" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D21" s="146" t="s">
         <v>400</v>
@@ -17394,13 +17420,13 @@
     </row>
     <row r="22" spans="1:9" ht="43.2">
       <c r="A22" s="144" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B22" s="145" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D22" s="146" t="s">
         <v>400</v>
@@ -17413,13 +17439,13 @@
     </row>
     <row r="23" spans="1:9" ht="43.2">
       <c r="A23" s="144" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B23" s="145" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D23" s="146" t="s">
         <v>400</v>
@@ -17432,13 +17458,13 @@
     </row>
     <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="144" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B24" s="145" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C24" s="145" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D24" s="146" t="s">
         <v>400</v>
@@ -17451,13 +17477,13 @@
     </row>
     <row r="25" spans="1:9" ht="57.6">
       <c r="A25" s="144" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B25" s="145" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C25" s="145" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D25" s="146" t="s">
         <v>400</v>
@@ -17470,13 +17496,13 @@
     </row>
     <row r="26" spans="1:9" ht="57.6">
       <c r="A26" s="144" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B26" s="145" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C26" s="145" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D26" s="146" t="s">
         <v>400</v>
@@ -17484,10 +17510,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="147" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B27" s="148" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="C27" s="148" t="s">
         <v>601</v>
@@ -17501,13 +17527,13 @@
     </row>
     <row r="28" spans="1:9" ht="40.799999999999997">
       <c r="A28" s="147" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B28" s="148" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C28" s="148" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D28" s="149" t="s">
         <v>581</v>
@@ -17530,13 +17556,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -17551,14 +17577,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="209">
+      <c r="A1" s="211">
         <v>2019</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
-      <c r="D1" s="209"/>
-      <c r="E1" s="209"/>
-      <c r="F1" s="209"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
@@ -17568,10 +17594,10 @@
         <v>941</v>
       </c>
       <c r="C2" s="122" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E2" s="102" t="s">
         <v>0</v>
@@ -17582,19 +17608,19 @@
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="120" t="s">
-        <v>574</v>
+        <v>1608</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>942</v>
+        <v>1609</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D3" s="210" t="s">
-        <v>1442</v>
+        <v>1610</v>
+      </c>
+      <c r="D3" s="212" t="s">
+        <v>1436</v>
       </c>
       <c r="E3" s="103" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F3" s="108" t="s">
         <v>938</v>
@@ -17608,11 +17634,11 @@
         <v>401</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D4" s="211"/>
+        <v>1016</v>
+      </c>
+      <c r="D4" s="213"/>
       <c r="E4" s="103" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F4" s="108"/>
     </row>
@@ -17624,92 +17650,92 @@
         <v>609</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D5" s="211"/>
+        <v>1183</v>
+      </c>
+      <c r="D5" s="213"/>
       <c r="E5" s="103" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F5" s="109"/>
     </row>
     <row r="6" spans="1:6" ht="57.6">
       <c r="A6" s="98" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="B6" s="99" t="s">
         <v>625</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D6" s="211"/>
+        <v>1184</v>
+      </c>
+      <c r="D6" s="213"/>
       <c r="E6" s="103" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F6" s="109"/>
     </row>
     <row r="7" spans="1:6" ht="110.4">
       <c r="A7" s="100" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="B7" s="99"/>
       <c r="C7" s="99"/>
-      <c r="D7" s="211"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="165" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="100" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D8" s="211"/>
+        <v>1185</v>
+      </c>
+      <c r="D8" s="213"/>
       <c r="E8" s="103" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F8" s="109"/>
     </row>
     <row r="9" spans="1:6" ht="43.2">
       <c r="A9" s="100" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D9" s="212"/>
+        <v>1186</v>
+      </c>
+      <c r="D9" s="214"/>
       <c r="E9" s="103" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:6" ht="93">
       <c r="A10" s="97" t="s">
-        <v>593</v>
+        <v>1611</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>595</v>
+        <v>1612</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D10" s="213" t="s">
-        <v>1443</v>
+        <v>1613</v>
+      </c>
+      <c r="D10" s="215" t="s">
+        <v>1437</v>
       </c>
       <c r="E10" s="104" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1">
@@ -17720,61 +17746,61 @@
         <v>617</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D11" s="213"/>
+        <v>1187</v>
+      </c>
+      <c r="D11" s="215"/>
       <c r="E11" s="104" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F11" s="110"/>
     </row>
     <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="101" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D12" s="214" t="s">
-        <v>981</v>
+        <v>1188</v>
+      </c>
+      <c r="D12" s="216" t="s">
+        <v>980</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F12" s="111"/>
     </row>
     <row r="13" spans="1:6" ht="28.8">
       <c r="A13" s="101" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D13" s="215"/>
+        <v>1189</v>
+      </c>
+      <c r="D13" s="217"/>
       <c r="E13" s="105" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F13" s="111"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="101" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D14" s="215"/>
+        <v>1190</v>
+      </c>
+      <c r="D14" s="217"/>
       <c r="E14" s="105" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F14" s="111"/>
     </row>
@@ -17786,265 +17812,265 @@
         <v>401</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D15" s="215"/>
+        <v>1015</v>
+      </c>
+      <c r="D15" s="217"/>
       <c r="E15" s="105" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F15" s="111"/>
     </row>
     <row r="16" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A16" s="101" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B16" s="101" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C16" s="101" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D16" s="216"/>
+        <v>1192</v>
+      </c>
+      <c r="D16" s="218"/>
       <c r="E16" s="105" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F16" s="111"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A17" s="166" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B17" s="166" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C17" s="166" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D17" s="217" t="s">
-        <v>980</v>
+        <v>1193</v>
+      </c>
+      <c r="D17" s="219" t="s">
+        <v>979</v>
       </c>
       <c r="E17" s="167" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F17" s="112"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A18" s="166" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B18" s="166" t="s">
+        <v>959</v>
+      </c>
+      <c r="C18" s="166" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D18" s="219"/>
+      <c r="E18" s="167" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F18" s="112"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.8" customHeight="1">
+      <c r="A19" s="168" t="s">
         <v>960</v>
       </c>
-      <c r="C18" s="166" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D18" s="217"/>
-      <c r="E18" s="167" t="s">
+      <c r="B19" s="169" t="s">
+        <v>961</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D19" s="170" t="s">
+        <v>978</v>
+      </c>
+      <c r="E19" s="171" t="s">
         <v>1007</v>
-      </c>
-      <c r="F18" s="112"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A19" s="168" t="s">
-        <v>961</v>
-      </c>
-      <c r="B19" s="169" t="s">
-        <v>962</v>
-      </c>
-      <c r="C19" s="169" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="170" t="s">
-        <v>979</v>
-      </c>
-      <c r="E19" s="171" t="s">
-        <v>1008</v>
       </c>
       <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8" customHeight="1">
       <c r="A20" s="172" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B20" s="172" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C20" s="172" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D20" s="203" t="s">
-        <v>978</v>
+        <v>1191</v>
+      </c>
+      <c r="D20" s="205" t="s">
+        <v>977</v>
       </c>
       <c r="E20" s="173" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A21" s="172" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B21" s="172" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C21" s="172" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D21" s="204"/>
+        <v>1196</v>
+      </c>
+      <c r="D21" s="206"/>
       <c r="E21" s="173" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A22" s="172" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B22" s="172" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C22" s="172" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D22" s="204"/>
+        <v>1197</v>
+      </c>
+      <c r="D22" s="206"/>
       <c r="E22" s="173" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F22" s="114"/>
     </row>
     <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A23" s="172" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B23" s="172" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C23" s="172" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D23" s="204"/>
+        <v>1198</v>
+      </c>
+      <c r="D23" s="206"/>
       <c r="E23" s="173" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F23" s="114"/>
     </row>
     <row r="24" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A24" s="172" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B24" s="172" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D24" s="205"/>
+        <v>1199</v>
+      </c>
+      <c r="D24" s="207"/>
       <c r="E24" s="173" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F24" s="114"/>
     </row>
     <row r="25" spans="1:6" s="96" customFormat="1" ht="86.4">
       <c r="A25" s="174" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B25" s="174" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C25" s="174" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="D25" s="175" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E25" s="176" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F25" s="115"/>
     </row>
     <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A26" s="177" t="s">
+        <v>987</v>
+      </c>
+      <c r="B26" s="177" t="s">
         <v>988</v>
       </c>
-      <c r="B26" s="177" t="s">
-        <v>989</v>
-      </c>
       <c r="C26" s="177" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D26" s="206" t="s">
-        <v>995</v>
+        <v>1201</v>
+      </c>
+      <c r="D26" s="208" t="s">
+        <v>994</v>
       </c>
       <c r="E26" s="178" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F26" s="116"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A27" s="177" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B27" s="177" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C27" s="177" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D27" s="206"/>
+        <v>1202</v>
+      </c>
+      <c r="D27" s="208"/>
       <c r="E27" s="178" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F27" s="116"/>
     </row>
     <row r="28" spans="1:6" s="96" customFormat="1" ht="72">
       <c r="A28" s="179" t="s">
+        <v>990</v>
+      </c>
+      <c r="B28" s="179" t="s">
         <v>991</v>
       </c>
-      <c r="B28" s="179" t="s">
-        <v>992</v>
-      </c>
       <c r="C28" s="179" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D28" s="180" t="s">
+        <v>995</v>
+      </c>
+      <c r="E28" s="181" t="s">
         <v>996</v>
-      </c>
-      <c r="E28" s="181" t="s">
-        <v>997</v>
       </c>
       <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A29" s="148" t="s">
+        <v>997</v>
+      </c>
+      <c r="B29" s="148" t="s">
         <v>998</v>
       </c>
-      <c r="B29" s="148" t="s">
-        <v>999</v>
-      </c>
       <c r="C29" s="148" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D29" s="207" t="s">
-        <v>1220</v>
+        <v>1204</v>
+      </c>
+      <c r="D29" s="209" t="s">
+        <v>1215</v>
       </c>
       <c r="E29" s="148" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F29" s="118"/>
     </row>
     <row r="30" spans="1:6" s="96" customFormat="1" ht="57.6">
       <c r="A30" s="148" t="s">
+        <v>999</v>
+      </c>
+      <c r="B30" s="148" t="s">
         <v>1000</v>
       </c>
-      <c r="B30" s="148" t="s">
-        <v>1001</v>
-      </c>
       <c r="C30" s="148" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D30" s="208"/>
+        <v>1200</v>
+      </c>
+      <c r="D30" s="210"/>
       <c r="E30" s="148" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F30" s="118"/>
     </row>
@@ -18053,14 +18079,14 @@
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
       <c r="D31" s="162" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="E31" s="182"/>
       <c r="F31" s="161"/>
     </row>
     <row r="32" spans="1:6" s="96" customFormat="1">
       <c r="A32" s="82" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -18076,53 +18102,49 @@
       <c r="E33" s="106"/>
       <c r="F33" s="119"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="163" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="10" t="s">
-        <v>1256</v>
-      </c>
-      <c r="B35" s="164" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10" t="s">
-        <v>1258</v>
-      </c>
-      <c r="B36" s="164" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+    <row r="34" spans="1:6" s="96" customFormat="1">
+      <c r="A34" s="82" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="119"/>
+    </row>
+    <row r="35" spans="1:6" s="96" customFormat="1">
+      <c r="A35" s="82" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="119"/>
+    </row>
+    <row r="36" spans="1:6" s="96" customFormat="1">
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="119"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="10" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B37" s="164" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C37" s="106"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="163" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="10" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="C38" s="106"/>
       <c r="D38" s="119"/>
@@ -18131,10 +18153,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="10" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="B39" s="164" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="C39" s="106"/>
       <c r="D39" s="119"/>
@@ -18143,10 +18165,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="10" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="B40" s="164" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="C40" s="106"/>
       <c r="D40" s="119"/>
@@ -18155,10 +18177,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="10" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="B41" s="164" t="s">
-        <v>1269</v>
+        <v>1257</v>
       </c>
       <c r="C41" s="106"/>
       <c r="D41" s="119"/>
@@ -18167,10 +18189,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>1270</v>
+        <v>1258</v>
       </c>
       <c r="B42" s="164" t="s">
-        <v>1271</v>
+        <v>1259</v>
       </c>
       <c r="C42" s="106"/>
       <c r="D42" s="119"/>
@@ -18179,10 +18201,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="10" t="s">
-        <v>1272</v>
+        <v>1260</v>
       </c>
       <c r="B43" s="164" t="s">
-        <v>1273</v>
+        <v>1261</v>
       </c>
       <c r="C43" s="106"/>
       <c r="D43" s="119"/>
@@ -18191,10 +18213,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="10" t="s">
-        <v>1274</v>
+        <v>1262</v>
       </c>
       <c r="B44" s="164" t="s">
-        <v>1275</v>
+        <v>1263</v>
       </c>
       <c r="C44" s="106"/>
       <c r="D44" s="119"/>
@@ -18203,10 +18225,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10" t="s">
-        <v>1276</v>
+        <v>1264</v>
       </c>
       <c r="B45" s="164" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="C45" s="106"/>
       <c r="D45" s="119"/>
@@ -18215,10 +18237,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>1278</v>
+        <v>1266</v>
       </c>
       <c r="B46" s="164" t="s">
-        <v>1279</v>
+        <v>1267</v>
       </c>
       <c r="C46" s="106"/>
       <c r="D46" s="119"/>
@@ -18227,10 +18249,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10" t="s">
-        <v>1280</v>
+        <v>1268</v>
       </c>
       <c r="B47" s="164" t="s">
-        <v>1281</v>
+        <v>1269</v>
       </c>
       <c r="C47" s="106"/>
       <c r="D47" s="119"/>
@@ -18239,10 +18261,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10" t="s">
-        <v>1282</v>
+        <v>1270</v>
       </c>
       <c r="B48" s="164" t="s">
-        <v>1283</v>
+        <v>1271</v>
       </c>
       <c r="C48" s="106"/>
       <c r="D48" s="119"/>
@@ -18251,10 +18273,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
-        <v>1284</v>
+        <v>1272</v>
       </c>
       <c r="B49" s="164" t="s">
-        <v>1285</v>
+        <v>1273</v>
       </c>
       <c r="C49" s="106"/>
       <c r="D49" s="119"/>
@@ -18263,10 +18285,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
-        <v>1286</v>
+        <v>1274</v>
       </c>
       <c r="B50" s="164" t="s">
-        <v>1287</v>
+        <v>1275</v>
       </c>
       <c r="C50" s="106"/>
       <c r="D50" s="119"/>
@@ -18275,10 +18297,10 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="10" t="s">
-        <v>1288</v>
+        <v>1276</v>
       </c>
       <c r="B51" s="164" t="s">
-        <v>1289</v>
+        <v>1277</v>
       </c>
       <c r="C51" s="106"/>
       <c r="D51" s="119"/>
@@ -18287,10 +18309,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
-        <v>1290</v>
+        <v>1278</v>
       </c>
       <c r="B52" s="164" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="C52" s="106"/>
       <c r="D52" s="119"/>
@@ -18299,10 +18321,10 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="B53" s="164" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="C53" s="106"/>
       <c r="D53" s="119"/>
@@ -18311,10 +18333,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="B54" s="164" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="C54" s="106"/>
       <c r="D54" s="119"/>
@@ -18323,10 +18345,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
       <c r="B55" s="164" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C55" s="106"/>
       <c r="D55" s="119"/>
@@ -18335,10 +18357,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="B56" s="164" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
       <c r="C56" s="106"/>
       <c r="D56" s="119"/>
@@ -18347,10 +18369,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="10" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="B57" s="164" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="C57" s="106"/>
       <c r="D57" s="119"/>
@@ -18359,10 +18381,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
       <c r="B58" s="164" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="C58" s="106"/>
       <c r="D58" s="119"/>
@@ -18371,10 +18393,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="B59" s="164" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
       <c r="C59" s="106"/>
       <c r="D59" s="119"/>
@@ -18383,10 +18405,10 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="B60" s="164" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="C60" s="106"/>
       <c r="D60" s="119"/>
@@ -18395,10 +18417,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
       <c r="B61" s="164" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C61" s="106"/>
       <c r="D61" s="119"/>
@@ -18407,10 +18429,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="B62" s="164" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="C62" s="106"/>
       <c r="D62" s="119"/>
@@ -18419,10 +18441,10 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="B63" s="164" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="C63" s="106"/>
       <c r="D63" s="119"/>
@@ -18431,10 +18453,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="B64" s="164" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="C64" s="106"/>
       <c r="D64" s="119"/>
@@ -18443,10 +18465,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="10" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="B65" s="164" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="C65" s="106"/>
       <c r="D65" s="119"/>
@@ -18455,10 +18477,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="10" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="B66" s="164" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C66" s="106"/>
       <c r="D66" s="119"/>
@@ -18467,10 +18489,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="10" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="B67" s="164" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="C67" s="106"/>
       <c r="D67" s="119"/>
@@ -18479,10 +18501,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="10" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="B68" s="164" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="C68" s="106"/>
       <c r="D68" s="119"/>
@@ -18491,10 +18513,10 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="10" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="B69" s="164" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="C69" s="106"/>
       <c r="D69" s="119"/>
@@ -18503,10 +18525,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="10" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="B70" s="164" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C70" s="106"/>
       <c r="D70" s="119"/>
@@ -18515,10 +18537,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="10" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="B71" s="164" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C71" s="106"/>
       <c r="D71" s="119"/>
@@ -18527,10 +18549,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="10" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="B72" s="164" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="C72" s="106"/>
       <c r="D72" s="119"/>
@@ -18539,10 +18561,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="10" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="B73" s="164" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="C73" s="106"/>
       <c r="D73" s="119"/>
@@ -18551,10 +18573,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="10" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
       <c r="B74" s="164" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="C74" s="106"/>
       <c r="D74" s="119"/>
@@ -18563,10 +18585,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="10" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="B75" s="164" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
       <c r="C75" s="106"/>
       <c r="D75" s="119"/>
@@ -18575,10 +18597,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="10" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B76" s="164" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="C76" s="106"/>
       <c r="D76" s="119"/>
@@ -18587,10 +18609,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="10" t="s">
-        <v>1339</v>
+        <v>1328</v>
       </c>
       <c r="B77" s="164" t="s">
-        <v>1340</v>
+        <v>1329</v>
       </c>
       <c r="C77" s="106"/>
       <c r="D77" s="119"/>
@@ -18599,10 +18621,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="10" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="B78" s="164" t="s">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="C78" s="106"/>
       <c r="D78" s="119"/>
@@ -18611,10 +18633,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="10" t="s">
-        <v>1343</v>
+        <v>1332</v>
       </c>
       <c r="B79" s="164" t="s">
-        <v>1344</v>
+        <v>1317</v>
       </c>
       <c r="C79" s="106"/>
       <c r="D79" s="119"/>
@@ -18623,10 +18645,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="10" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="B80" s="164" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="C80" s="106"/>
       <c r="D80" s="119"/>
@@ -18635,10 +18657,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="10" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="B81" s="164" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="C81" s="106"/>
       <c r="D81" s="119"/>
@@ -18647,10 +18669,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="B82" s="164" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="C82" s="106"/>
       <c r="D82" s="119"/>
@@ -18659,10 +18681,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="10" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="B83" s="164" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="C83" s="106"/>
       <c r="D83" s="119"/>
@@ -18671,10 +18693,10 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="10" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="B84" s="164" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="C84" s="106"/>
       <c r="D84" s="119"/>
@@ -18683,10 +18705,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="10" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="B85" s="164" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="C85" s="106"/>
       <c r="D85" s="119"/>
@@ -18695,10 +18717,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="10" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="B86" s="164" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
       <c r="C86" s="106"/>
       <c r="D86" s="119"/>
@@ -18707,10 +18729,10 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="10" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="B87" s="164" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="C87" s="106"/>
       <c r="D87" s="119"/>
@@ -18719,10 +18741,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="10" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="B88" s="164" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
       <c r="C88" s="106"/>
       <c r="D88" s="119"/>
@@ -18731,10 +18753,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="10" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="B89" s="164" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="C89" s="106"/>
       <c r="D89" s="119"/>
@@ -18743,10 +18765,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="10" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="B90" s="164" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="C90" s="106"/>
       <c r="D90" s="119"/>
@@ -18755,10 +18777,10 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="10" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="B91" s="164" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="C91" s="106"/>
       <c r="D91" s="119"/>
@@ -18767,10 +18789,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="10" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="B92" s="164" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="C92" s="106"/>
       <c r="D92" s="119"/>
@@ -18779,10 +18801,10 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="10" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="B93" s="164" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="C93" s="106"/>
       <c r="D93" s="119"/>
@@ -18791,10 +18813,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="10" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="B94" s="164" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="C94" s="106"/>
       <c r="D94" s="119"/>
@@ -18803,10 +18825,10 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="10" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="B95" s="164" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="C95" s="106"/>
       <c r="D95" s="119"/>
@@ -18815,10 +18837,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="10" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="B96" s="164" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="C96" s="106"/>
       <c r="D96" s="119"/>
@@ -18827,10 +18849,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="10" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="B97" s="164" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="C97" s="106"/>
       <c r="D97" s="119"/>
@@ -18839,10 +18861,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="10" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="B98" s="164" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="C98" s="106"/>
       <c r="D98" s="119"/>
@@ -18851,10 +18873,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="10" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="B99" s="164" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="C99" s="106"/>
       <c r="D99" s="119"/>
@@ -18863,10 +18885,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="10" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="B100" s="164" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="C100" s="106"/>
       <c r="D100" s="119"/>
@@ -18875,10 +18897,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="10" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="B101" s="164" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="C101" s="106"/>
       <c r="D101" s="119"/>
@@ -18887,10 +18909,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="10" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="B102" s="164" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="C102" s="106"/>
       <c r="D102" s="119"/>
@@ -18899,10 +18921,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="10" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="B103" s="164" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C103" s="106"/>
       <c r="D103" s="119"/>
@@ -18911,10 +18933,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="10" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="B104" s="164" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="C104" s="106"/>
       <c r="D104" s="119"/>
@@ -18923,10 +18945,10 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="10" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="B105" s="164" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
       <c r="C105" s="106"/>
       <c r="D105" s="119"/>
@@ -18935,10 +18957,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="10" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
       <c r="B106" s="164" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
       <c r="C106" s="106"/>
       <c r="D106" s="119"/>
@@ -18947,10 +18969,10 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="10" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="B107" s="164" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="C107" s="106"/>
       <c r="D107" s="119"/>
@@ -18959,10 +18981,10 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="10" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="B108" s="164" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="C108" s="106"/>
       <c r="D108" s="119"/>
@@ -18971,10 +18993,10 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="10" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="B109" s="164" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
       <c r="C109" s="106"/>
       <c r="D109" s="119"/>
@@ -18983,10 +19005,10 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="10" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="B110" s="164" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="C110" s="106"/>
       <c r="D110" s="119"/>
@@ -18995,10 +19017,10 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="10" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="B111" s="164" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="C111" s="106"/>
       <c r="D111" s="119"/>
@@ -19007,10 +19029,10 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="10" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
       <c r="B112" s="164" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="C112" s="106"/>
       <c r="D112" s="119"/>
@@ -19019,10 +19041,10 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="10" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="B113" s="164" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="C113" s="106"/>
       <c r="D113" s="119"/>
@@ -19031,10 +19053,10 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="10" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="B114" s="164" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="C114" s="106"/>
       <c r="D114" s="119"/>
@@ -19043,10 +19065,10 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="10" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="B115" s="164" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="C115" s="106"/>
       <c r="D115" s="119"/>
@@ -19055,10 +19077,10 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="10" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="B116" s="164" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="C116" s="106"/>
       <c r="D116" s="119"/>
@@ -19067,10 +19089,10 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="10" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="B117" s="164" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="C117" s="106"/>
       <c r="D117" s="119"/>
@@ -19079,10 +19101,10 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="10" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
       <c r="B118" s="164" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="C118" s="106"/>
       <c r="D118" s="119"/>
@@ -19091,10 +19113,10 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="10" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="B119" s="164" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="C119" s="106"/>
       <c r="D119" s="119"/>
@@ -19103,10 +19125,10 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="10" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="B120" s="164" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="C120" s="106"/>
       <c r="D120" s="119"/>
@@ -19115,10 +19137,10 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="10" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="B121" s="164" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="C121" s="106"/>
       <c r="D121" s="119"/>
@@ -19127,10 +19149,10 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="10" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="B122" s="164" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="C122" s="106"/>
       <c r="D122" s="119"/>
@@ -19139,10 +19161,10 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="10" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="B123" s="164" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="C123" s="106"/>
       <c r="D123" s="119"/>
@@ -19151,10 +19173,10 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="10" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="B124" s="164" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="C124" s="106"/>
       <c r="D124" s="119"/>
@@ -19163,15 +19185,51 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="10" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="B125" s="164" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="C125" s="106"/>
       <c r="D125" s="119"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B126" s="164" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C126" s="106"/>
+      <c r="D126" s="119"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B127" s="164" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C127" s="106"/>
+      <c r="D127" s="119"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B128" s="164" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C128" s="106"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -19418,14 +19476,14 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
